--- a/biology/Botanique/Latanier_rouge/Latanier_rouge.xlsx
+++ b/biology/Botanique/Latanier_rouge/Latanier_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Latania lontaroides
 Le Latanier rouge (Latania lontaroides) est une espèce de palmier qui était autrefois présent dans plusieurs îles des Mascareignes et qui ne l'est plus aujourd'hui de façon naturelle qu'à La Réunion. Il est d'ailleurs également connu sous le nom de latanier de la Réunion, voire de pomme latanier.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cleophora lontaroides
 Latania borbonica
@@ -546,7 +560,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'état sauvage, on ne le trouve guère que sur la côte sud de l'île entre Petite-Île et Saint-Philippe, sur les falaises et dans les ravines côtières. Il y est menacé par l'agriculture et le développement des infrastructures humaines.
 </t>
@@ -577,7 +593,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Latanier rouge est dioïque : mâles et femelles poussent séparément.
 Pouvant atteindre 12 mètres de haut, il déploie au bout de son stipe (tige) gris et lisse des feuilles en éventail vertes qui sont d'abord rouges durant les premières années de sa vie, comme les pétioles. Les bords du limbe et les nervures principales sont finement dentés.
@@ -610,7 +628,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pouvant faire office de plante d'ornement et résistant à de petits gels, le latanier rouge fait l'objet d'un commerce international.
 Le latanier rouge est utilisé traditionnellement à la Réunion pour la fabrication artisanale de chapeaux et sacs.
@@ -642,7 +662,9 @@
           <t>Informations complémentaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Flore endémique de La Réunion.</t>
         </is>
@@ -672,7 +694,9 @@
           <t>Citation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">« À minuit tombe la pluie bienfaisante et l'on repart dans les vents sucrés. Un peu plus tard, on passe entre les îles. Comme la lune est pleine, Suter peut contempler de sa balançoire des végétations de palmiers et des lataniers en fleurs. »  (L'Or de Blaise Cendrars)
 </t>
